--- a/ORACLE/FINAL_MODEL.xlsx
+++ b/ORACLE/FINAL_MODEL.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HARISH\WORK\HEDIS3.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HARISH\HEALTHINSIGHTS\ORACLE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DIMS" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DIMS!$A$1:$H$380</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FACTS!$A$1:$H$501</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">FACTS!$A$1:$H$502</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">QMS!$A$1:$H$129</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">REFS!$A$1:$H$176</definedName>
   </definedNames>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="649">
   <si>
     <t>PK</t>
   </si>
@@ -1811,9 +1811,6 @@
     <t>VARCHAR2(2500 BYTE)</t>
   </si>
   <si>
-    <t>DOMAIN</t>
-  </si>
-  <si>
     <t>TYPE_ID</t>
   </si>
   <si>
@@ -1940,9 +1937,6 @@
     <t>QMS_STATUS</t>
   </si>
   <si>
-    <t>STATUS_DIM_ID</t>
-  </si>
-  <si>
     <t>STATUS_DESCRIPTION</t>
   </si>
   <si>
@@ -1980,6 +1974,12 @@
   </si>
   <si>
     <t>QMS_USER_ROLE_DESCRIPTION</t>
+  </si>
+  <si>
+    <t>DOMAIN_ID</t>
+  </si>
+  <si>
+    <t>REASON</t>
   </si>
 </sst>
 </file>
@@ -2342,7 +2342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7924,10 +7924,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H501"/>
+  <dimension ref="A1:H502"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D176" sqref="D176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10439,13 +10439,13 @@
         <v>312</v>
       </c>
       <c r="B173" t="s">
-        <v>48</v>
+        <v>648</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>154</v>
       </c>
       <c r="D173" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -10453,7 +10453,7 @@
         <v>312</v>
       </c>
       <c r="B174" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="C174" t="s">
         <v>6</v>
@@ -10467,10 +10467,10 @@
         <v>312</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C175" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D175" t="s">
         <v>7</v>
@@ -10481,10 +10481,10 @@
         <v>312</v>
       </c>
       <c r="B176" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
         <v>7</v>
@@ -10495,7 +10495,7 @@
         <v>312</v>
       </c>
       <c r="B177" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C177" t="s">
         <v>16</v>
@@ -10509,10 +10509,10 @@
         <v>312</v>
       </c>
       <c r="B178" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C178" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D178" t="s">
         <v>7</v>
@@ -10523,7 +10523,7 @@
         <v>312</v>
       </c>
       <c r="B179" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C179" t="s">
         <v>14</v>
@@ -10537,10 +10537,10 @@
         <v>312</v>
       </c>
       <c r="B180" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D180" t="s">
         <v>7</v>
@@ -10551,10 +10551,10 @@
         <v>312</v>
       </c>
       <c r="B181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D181" t="s">
         <v>7</v>
@@ -10565,7 +10565,7 @@
         <v>312</v>
       </c>
       <c r="B182" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C182" t="s">
         <v>6</v>
@@ -10576,28 +10576,16 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B183" t="s">
-        <v>321</v>
+        <v>22</v>
       </c>
       <c r="C183" t="s">
         <v>6</v>
       </c>
       <c r="D183" t="s">
         <v>7</v>
-      </c>
-      <c r="E183" t="s">
-        <v>23</v>
-      </c>
-      <c r="F183" t="s">
-        <v>23</v>
-      </c>
-      <c r="G183" t="s">
-        <v>23</v>
-      </c>
-      <c r="H183">
-        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
@@ -10605,13 +10593,25 @@
         <v>320</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="C184" t="s">
         <v>6</v>
       </c>
       <c r="D184" t="s">
         <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>23</v>
+      </c>
+      <c r="F184" t="s">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>23</v>
+      </c>
+      <c r="H184">
+        <v>303</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
@@ -10619,7 +10619,7 @@
         <v>320</v>
       </c>
       <c r="B185" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
         <v>6</v>
@@ -10633,7 +10633,7 @@
         <v>320</v>
       </c>
       <c r="B186" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
         <v>6</v>
@@ -10647,7 +10647,7 @@
         <v>320</v>
       </c>
       <c r="B187" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C187" t="s">
         <v>6</v>
@@ -10661,7 +10661,7 @@
         <v>320</v>
       </c>
       <c r="B188" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C188" t="s">
         <v>6</v>
@@ -10675,7 +10675,7 @@
         <v>320</v>
       </c>
       <c r="B189" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C189" t="s">
         <v>6</v>
@@ -10689,7 +10689,7 @@
         <v>320</v>
       </c>
       <c r="B190" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C190" t="s">
         <v>6</v>
@@ -10703,7 +10703,7 @@
         <v>320</v>
       </c>
       <c r="B191" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="C191" t="s">
         <v>6</v>
@@ -10717,13 +10717,13 @@
         <v>320</v>
       </c>
       <c r="B192" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C192" t="s">
         <v>6</v>
       </c>
       <c r="D192" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
@@ -10731,7 +10731,7 @@
         <v>320</v>
       </c>
       <c r="B193" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C193" t="s">
         <v>6</v>
@@ -10745,7 +10745,7 @@
         <v>320</v>
       </c>
       <c r="B194" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C194" t="s">
         <v>6</v>
@@ -10759,7 +10759,7 @@
         <v>320</v>
       </c>
       <c r="B195" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C195" t="s">
         <v>6</v>
@@ -10773,7 +10773,7 @@
         <v>320</v>
       </c>
       <c r="B196" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C196" t="s">
         <v>6</v>
@@ -10787,7 +10787,7 @@
         <v>320</v>
       </c>
       <c r="B197" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C197" t="s">
         <v>6</v>
@@ -10801,13 +10801,13 @@
         <v>320</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>328</v>
       </c>
       <c r="C198" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D198" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
@@ -10815,10 +10815,10 @@
         <v>320</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
         <v>7</v>
@@ -10829,7 +10829,7 @@
         <v>320</v>
       </c>
       <c r="B200" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C200" t="s">
         <v>16</v>
@@ -10843,10 +10843,10 @@
         <v>320</v>
       </c>
       <c r="B201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C201" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D201" t="s">
         <v>7</v>
@@ -10857,7 +10857,7 @@
         <v>320</v>
       </c>
       <c r="B202" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C202" t="s">
         <v>14</v>
@@ -10871,10 +10871,10 @@
         <v>320</v>
       </c>
       <c r="B203" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D203" t="s">
         <v>7</v>
@@ -10885,10 +10885,10 @@
         <v>320</v>
       </c>
       <c r="B204" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C204" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D204" t="s">
         <v>7</v>
@@ -10899,7 +10899,7 @@
         <v>320</v>
       </c>
       <c r="B205" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C205" t="s">
         <v>6</v>
@@ -10910,28 +10910,16 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B206" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="C206" t="s">
         <v>6</v>
       </c>
       <c r="D206" t="s">
         <v>7</v>
-      </c>
-      <c r="E206" t="s">
-        <v>23</v>
-      </c>
-      <c r="F206" t="s">
-        <v>23</v>
-      </c>
-      <c r="G206" t="s">
-        <v>23</v>
-      </c>
-      <c r="H206">
-        <v>18656</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
@@ -10939,13 +10927,25 @@
         <v>329</v>
       </c>
       <c r="B207" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C207" t="s">
         <v>6</v>
       </c>
       <c r="D207" t="s">
         <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>23</v>
+      </c>
+      <c r="F207" t="s">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>23</v>
+      </c>
+      <c r="H207">
+        <v>18656</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -10953,7 +10953,7 @@
         <v>329</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>331</v>
       </c>
       <c r="C208" t="s">
         <v>6</v>
@@ -10967,7 +10967,7 @@
         <v>329</v>
       </c>
       <c r="B209" t="s">
-        <v>332</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
         <v>6</v>
@@ -10981,7 +10981,7 @@
         <v>329</v>
       </c>
       <c r="B210" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="C210" t="s">
         <v>6</v>
@@ -10995,7 +10995,7 @@
         <v>329</v>
       </c>
       <c r="B211" t="s">
-        <v>333</v>
+        <v>46</v>
       </c>
       <c r="C211" t="s">
         <v>6</v>
@@ -11009,7 +11009,7 @@
         <v>329</v>
       </c>
       <c r="B212" t="s">
-        <v>5</v>
+        <v>333</v>
       </c>
       <c r="C212" t="s">
         <v>6</v>
@@ -11023,13 +11023,13 @@
         <v>329</v>
       </c>
       <c r="B213" t="s">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="C213" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D213" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
@@ -11037,7 +11037,7 @@
         <v>329</v>
       </c>
       <c r="B214" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="C214" t="s">
         <v>526</v>
@@ -11051,7 +11051,7 @@
         <v>329</v>
       </c>
       <c r="B215" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C215" t="s">
         <v>526</v>
@@ -11065,10 +11065,10 @@
         <v>329</v>
       </c>
       <c r="B216" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="C216" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D216" t="s">
         <v>28</v>
@@ -11079,13 +11079,13 @@
         <v>329</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>322</v>
       </c>
       <c r="C217" t="s">
-        <v>14</v>
+        <v>540</v>
       </c>
       <c r="D217" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
@@ -11093,10 +11093,10 @@
         <v>329</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D218" t="s">
         <v>7</v>
@@ -11107,7 +11107,7 @@
         <v>329</v>
       </c>
       <c r="B219" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C219" t="s">
         <v>16</v>
@@ -11121,10 +11121,10 @@
         <v>329</v>
       </c>
       <c r="B220" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C220" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D220" t="s">
         <v>7</v>
@@ -11135,7 +11135,7 @@
         <v>329</v>
       </c>
       <c r="B221" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
@@ -11149,10 +11149,10 @@
         <v>329</v>
       </c>
       <c r="B222" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D222" t="s">
         <v>7</v>
@@ -11163,10 +11163,10 @@
         <v>329</v>
       </c>
       <c r="B223" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C223" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D223" t="s">
         <v>7</v>
@@ -11177,7 +11177,7 @@
         <v>329</v>
       </c>
       <c r="B224" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C224" t="s">
         <v>6</v>
@@ -11188,28 +11188,16 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B225" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="C225" t="s">
         <v>6</v>
       </c>
       <c r="D225" t="s">
         <v>7</v>
-      </c>
-      <c r="E225" t="s">
-        <v>23</v>
-      </c>
-      <c r="F225" t="s">
-        <v>23</v>
-      </c>
-      <c r="G225" t="s">
-        <v>478</v>
-      </c>
-      <c r="H225">
-        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -11217,13 +11205,25 @@
         <v>335</v>
       </c>
       <c r="B226" t="s">
-        <v>62</v>
+        <v>336</v>
       </c>
       <c r="C226" t="s">
         <v>6</v>
       </c>
       <c r="D226" t="s">
         <v>7</v>
+      </c>
+      <c r="E226" t="s">
+        <v>23</v>
+      </c>
+      <c r="F226" t="s">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>478</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
@@ -11231,10 +11231,10 @@
         <v>335</v>
       </c>
       <c r="B227" t="s">
-        <v>337</v>
+        <v>62</v>
       </c>
       <c r="C227" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D227" t="s">
         <v>7</v>
@@ -11245,7 +11245,7 @@
         <v>335</v>
       </c>
       <c r="B228" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -11259,7 +11259,7 @@
         <v>335</v>
       </c>
       <c r="B229" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C229" t="s">
         <v>14</v>
@@ -11273,7 +11273,7 @@
         <v>335</v>
       </c>
       <c r="B230" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -11287,7 +11287,7 @@
         <v>335</v>
       </c>
       <c r="B231" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C231" t="s">
         <v>14</v>
@@ -11301,7 +11301,7 @@
         <v>335</v>
       </c>
       <c r="B232" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -11315,7 +11315,7 @@
         <v>335</v>
       </c>
       <c r="B233" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C233" t="s">
         <v>14</v>
@@ -11329,7 +11329,7 @@
         <v>335</v>
       </c>
       <c r="B234" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -11343,7 +11343,7 @@
         <v>335</v>
       </c>
       <c r="B235" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -11357,7 +11357,7 @@
         <v>335</v>
       </c>
       <c r="B236" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -11371,7 +11371,7 @@
         <v>335</v>
       </c>
       <c r="B237" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C237" t="s">
         <v>14</v>
@@ -11385,7 +11385,7 @@
         <v>335</v>
       </c>
       <c r="B238" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -11399,7 +11399,7 @@
         <v>335</v>
       </c>
       <c r="B239" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -11413,7 +11413,7 @@
         <v>335</v>
       </c>
       <c r="B240" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C240" t="s">
         <v>14</v>
@@ -11427,7 +11427,7 @@
         <v>335</v>
       </c>
       <c r="B241" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C241" t="s">
         <v>14</v>
@@ -11441,7 +11441,7 @@
         <v>335</v>
       </c>
       <c r="B242" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
@@ -11455,7 +11455,7 @@
         <v>335</v>
       </c>
       <c r="B243" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -11469,7 +11469,7 @@
         <v>335</v>
       </c>
       <c r="B244" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C244" t="s">
         <v>14</v>
@@ -11483,7 +11483,7 @@
         <v>335</v>
       </c>
       <c r="B245" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C245" t="s">
         <v>14</v>
@@ -11497,7 +11497,7 @@
         <v>335</v>
       </c>
       <c r="B246" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C246" t="s">
         <v>14</v>
@@ -11511,7 +11511,7 @@
         <v>335</v>
       </c>
       <c r="B247" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -11525,7 +11525,7 @@
         <v>335</v>
       </c>
       <c r="B248" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C248" t="s">
         <v>14</v>
@@ -11539,13 +11539,13 @@
         <v>335</v>
       </c>
       <c r="B249" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
       </c>
       <c r="D249" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
@@ -11553,7 +11553,7 @@
         <v>335</v>
       </c>
       <c r="B250" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C250" t="s">
         <v>14</v>
@@ -11567,7 +11567,7 @@
         <v>335</v>
       </c>
       <c r="B251" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C251" t="s">
         <v>14</v>
@@ -11581,13 +11581,13 @@
         <v>335</v>
       </c>
       <c r="B252" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C252" t="s">
-        <v>526</v>
+        <v>14</v>
       </c>
       <c r="D252" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
@@ -11595,10 +11595,10 @@
         <v>335</v>
       </c>
       <c r="B253" t="s">
-        <v>25</v>
+        <v>362</v>
       </c>
       <c r="C253" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D253" t="s">
         <v>7</v>
@@ -11609,10 +11609,10 @@
         <v>335</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C254" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D254" t="s">
         <v>7</v>
@@ -11623,10 +11623,10 @@
         <v>335</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D255" t="s">
         <v>7</v>
@@ -11637,7 +11637,7 @@
         <v>335</v>
       </c>
       <c r="B256" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C256" t="s">
         <v>16</v>
@@ -11651,10 +11651,10 @@
         <v>335</v>
       </c>
       <c r="B257" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C257" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D257" t="s">
         <v>7</v>
@@ -11665,7 +11665,7 @@
         <v>335</v>
       </c>
       <c r="B258" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C258" t="s">
         <v>14</v>
@@ -11679,10 +11679,10 @@
         <v>335</v>
       </c>
       <c r="B259" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D259" t="s">
         <v>7</v>
@@ -11693,10 +11693,10 @@
         <v>335</v>
       </c>
       <c r="B260" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C260" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D260" t="s">
         <v>7</v>
@@ -11707,7 +11707,7 @@
         <v>335</v>
       </c>
       <c r="B261" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C261" t="s">
         <v>6</v>
@@ -11718,28 +11718,16 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="B262" t="s">
-        <v>364</v>
+        <v>22</v>
       </c>
       <c r="C262" t="s">
         <v>6</v>
       </c>
       <c r="D262" t="s">
         <v>7</v>
-      </c>
-      <c r="E262" t="s">
-        <v>23</v>
-      </c>
-      <c r="F262" t="s">
-        <v>23</v>
-      </c>
-      <c r="G262" t="s">
-        <v>23</v>
-      </c>
-      <c r="H262">
-        <v>6105</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
@@ -11747,13 +11735,25 @@
         <v>363</v>
       </c>
       <c r="B263" t="s">
-        <v>62</v>
+        <v>364</v>
       </c>
       <c r="C263" t="s">
         <v>6</v>
       </c>
       <c r="D263" t="s">
         <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>23</v>
+      </c>
+      <c r="F263" t="s">
+        <v>23</v>
+      </c>
+      <c r="G263" t="s">
+        <v>23</v>
+      </c>
+      <c r="H263">
+        <v>6105</v>
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
@@ -11761,7 +11761,7 @@
         <v>363</v>
       </c>
       <c r="B264" t="s">
-        <v>365</v>
+        <v>62</v>
       </c>
       <c r="C264" t="s">
         <v>6</v>
@@ -11775,7 +11775,7 @@
         <v>363</v>
       </c>
       <c r="B265" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C265" t="s">
         <v>6</v>
@@ -11789,7 +11789,7 @@
         <v>363</v>
       </c>
       <c r="B266" t="s">
-        <v>116</v>
+        <v>366</v>
       </c>
       <c r="C266" t="s">
         <v>6</v>
@@ -11803,10 +11803,10 @@
         <v>363</v>
       </c>
       <c r="B267" t="s">
-        <v>367</v>
+        <v>116</v>
       </c>
       <c r="C267" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D267" t="s">
         <v>7</v>
@@ -11817,10 +11817,10 @@
         <v>363</v>
       </c>
       <c r="B268" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="C268" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D268" t="s">
         <v>7</v>
@@ -11831,7 +11831,7 @@
         <v>363</v>
       </c>
       <c r="B269" t="s">
-        <v>368</v>
+        <v>118</v>
       </c>
       <c r="C269" t="s">
         <v>6</v>
@@ -11845,13 +11845,13 @@
         <v>363</v>
       </c>
       <c r="B270" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C270" t="s">
         <v>6</v>
       </c>
       <c r="D270" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
@@ -11859,13 +11859,13 @@
         <v>363</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>369</v>
       </c>
       <c r="C271" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D271" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
@@ -11873,10 +11873,10 @@
         <v>363</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C272" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D272" t="s">
         <v>7</v>
@@ -11887,7 +11887,7 @@
         <v>363</v>
       </c>
       <c r="B273" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C273" t="s">
         <v>16</v>
@@ -11901,10 +11901,10 @@
         <v>363</v>
       </c>
       <c r="B274" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C274" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D274" t="s">
         <v>7</v>
@@ -11915,7 +11915,7 @@
         <v>363</v>
       </c>
       <c r="B275" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C275" t="s">
         <v>14</v>
@@ -11929,10 +11929,10 @@
         <v>363</v>
       </c>
       <c r="B276" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C276" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D276" t="s">
         <v>7</v>
@@ -11943,10 +11943,10 @@
         <v>363</v>
       </c>
       <c r="B277" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C277" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D277" t="s">
         <v>7</v>
@@ -11957,7 +11957,7 @@
         <v>363</v>
       </c>
       <c r="B278" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C278" t="s">
         <v>6</v>
@@ -11968,28 +11968,16 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B279" t="s">
-        <v>371</v>
+        <v>22</v>
       </c>
       <c r="C279" t="s">
         <v>6</v>
       </c>
       <c r="D279" t="s">
         <v>7</v>
-      </c>
-      <c r="E279" t="s">
-        <v>23</v>
-      </c>
-      <c r="F279" t="s">
-        <v>23</v>
-      </c>
-      <c r="G279" t="s">
-        <v>23</v>
-      </c>
-      <c r="H279">
-        <v>10800</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
@@ -11997,13 +11985,25 @@
         <v>370</v>
       </c>
       <c r="B280" t="s">
-        <v>91</v>
+        <v>371</v>
       </c>
       <c r="C280" t="s">
         <v>6</v>
       </c>
       <c r="D280" t="s">
         <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>23</v>
+      </c>
+      <c r="F280" t="s">
+        <v>23</v>
+      </c>
+      <c r="G280" t="s">
+        <v>23</v>
+      </c>
+      <c r="H280">
+        <v>10800</v>
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
@@ -12011,7 +12011,7 @@
         <v>370</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="C281" t="s">
         <v>6</v>
@@ -12025,10 +12025,10 @@
         <v>370</v>
       </c>
       <c r="B282" t="s">
-        <v>314</v>
+        <v>9</v>
       </c>
       <c r="C282" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D282" t="s">
         <v>7</v>
@@ -12039,7 +12039,7 @@
         <v>370</v>
       </c>
       <c r="B283" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
@@ -12053,7 +12053,7 @@
         <v>370</v>
       </c>
       <c r="B284" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C284" t="s">
         <v>14</v>
@@ -12067,7 +12067,7 @@
         <v>370</v>
       </c>
       <c r="B285" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
@@ -12081,7 +12081,7 @@
         <v>370</v>
       </c>
       <c r="B286" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C286" t="s">
         <v>14</v>
@@ -12095,7 +12095,7 @@
         <v>370</v>
       </c>
       <c r="B287" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
@@ -12109,10 +12109,10 @@
         <v>370</v>
       </c>
       <c r="B288" t="s">
-        <v>46</v>
+        <v>319</v>
       </c>
       <c r="C288" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D288" t="s">
         <v>7</v>
@@ -12123,7 +12123,7 @@
         <v>370</v>
       </c>
       <c r="B289" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C289" t="s">
         <v>6</v>
@@ -12137,10 +12137,10 @@
         <v>370</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C290" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D290" t="s">
         <v>7</v>
@@ -12151,10 +12151,10 @@
         <v>370</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D291" t="s">
         <v>7</v>
@@ -12165,7 +12165,7 @@
         <v>370</v>
       </c>
       <c r="B292" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C292" t="s">
         <v>16</v>
@@ -12179,10 +12179,10 @@
         <v>370</v>
       </c>
       <c r="B293" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C293" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D293" t="s">
         <v>7</v>
@@ -12193,7 +12193,7 @@
         <v>370</v>
       </c>
       <c r="B294" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C294" t="s">
         <v>14</v>
@@ -12207,10 +12207,10 @@
         <v>370</v>
       </c>
       <c r="B295" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C295" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D295" t="s">
         <v>7</v>
@@ -12221,10 +12221,10 @@
         <v>370</v>
       </c>
       <c r="B296" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C296" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D296" t="s">
         <v>7</v>
@@ -12235,7 +12235,7 @@
         <v>370</v>
       </c>
       <c r="B297" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C297" t="s">
         <v>6</v>
@@ -12246,28 +12246,16 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B298" t="s">
-        <v>373</v>
+        <v>22</v>
       </c>
       <c r="C298" t="s">
         <v>6</v>
       </c>
       <c r="D298" t="s">
         <v>7</v>
-      </c>
-      <c r="E298" t="s">
-        <v>23</v>
-      </c>
-      <c r="F298" t="s">
-        <v>23</v>
-      </c>
-      <c r="G298" t="s">
-        <v>23</v>
-      </c>
-      <c r="H298">
-        <v>530</v>
       </c>
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
@@ -12275,13 +12263,25 @@
         <v>372</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>373</v>
       </c>
       <c r="C299" t="s">
         <v>6</v>
       </c>
       <c r="D299" t="s">
         <v>7</v>
+      </c>
+      <c r="E299" t="s">
+        <v>23</v>
+      </c>
+      <c r="F299" t="s">
+        <v>23</v>
+      </c>
+      <c r="G299" t="s">
+        <v>23</v>
+      </c>
+      <c r="H299">
+        <v>530</v>
       </c>
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
@@ -12289,7 +12289,7 @@
         <v>372</v>
       </c>
       <c r="B300" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C300" t="s">
         <v>6</v>
@@ -12303,7 +12303,7 @@
         <v>372</v>
       </c>
       <c r="B301" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C301" t="s">
         <v>6</v>
@@ -12317,7 +12317,7 @@
         <v>372</v>
       </c>
       <c r="B302" t="s">
-        <v>157</v>
+        <v>46</v>
       </c>
       <c r="C302" t="s">
         <v>6</v>
@@ -12331,7 +12331,7 @@
         <v>372</v>
       </c>
       <c r="B303" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C303" t="s">
         <v>6</v>
@@ -12345,7 +12345,7 @@
         <v>372</v>
       </c>
       <c r="B304" t="s">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="C304" t="s">
         <v>6</v>
@@ -12359,13 +12359,13 @@
         <v>372</v>
       </c>
       <c r="B305" t="s">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="C305" t="s">
         <v>6</v>
       </c>
       <c r="D305" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
@@ -12373,13 +12373,13 @@
         <v>372</v>
       </c>
       <c r="B306" t="s">
-        <v>323</v>
+        <v>374</v>
       </c>
       <c r="C306" t="s">
         <v>6</v>
       </c>
       <c r="D306" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
@@ -12387,7 +12387,7 @@
         <v>372</v>
       </c>
       <c r="B307" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C307" t="s">
         <v>6</v>
@@ -12401,7 +12401,7 @@
         <v>372</v>
       </c>
       <c r="B308" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C308" t="s">
         <v>6</v>
@@ -12415,7 +12415,7 @@
         <v>372</v>
       </c>
       <c r="B309" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C309" t="s">
         <v>6</v>
@@ -12429,13 +12429,13 @@
         <v>372</v>
       </c>
       <c r="B310" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C310" t="s">
         <v>6</v>
       </c>
       <c r="D310" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
@@ -12443,7 +12443,7 @@
         <v>372</v>
       </c>
       <c r="B311" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C311" t="s">
         <v>6</v>
@@ -12457,7 +12457,7 @@
         <v>372</v>
       </c>
       <c r="B312" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="C312" t="s">
         <v>6</v>
@@ -12471,13 +12471,13 @@
         <v>372</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="C313" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D313" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
@@ -12485,10 +12485,10 @@
         <v>372</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C314" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D314" t="s">
         <v>7</v>
@@ -12499,7 +12499,7 @@
         <v>372</v>
       </c>
       <c r="B315" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C315" t="s">
         <v>16</v>
@@ -12513,10 +12513,10 @@
         <v>372</v>
       </c>
       <c r="B316" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D316" t="s">
         <v>7</v>
@@ -12527,7 +12527,7 @@
         <v>372</v>
       </c>
       <c r="B317" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C317" t="s">
         <v>14</v>
@@ -12541,10 +12541,10 @@
         <v>372</v>
       </c>
       <c r="B318" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C318" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D318" t="s">
         <v>7</v>
@@ -12555,10 +12555,10 @@
         <v>372</v>
       </c>
       <c r="B319" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C319" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D319" t="s">
         <v>7</v>
@@ -12569,7 +12569,7 @@
         <v>372</v>
       </c>
       <c r="B320" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C320" t="s">
         <v>6</v>
@@ -12580,28 +12580,16 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>558</v>
+        <v>372</v>
       </c>
       <c r="B321" t="s">
-        <v>553</v>
+        <v>22</v>
       </c>
       <c r="C321" t="s">
         <v>6</v>
       </c>
       <c r="D321" t="s">
         <v>7</v>
-      </c>
-      <c r="E321" t="s">
-        <v>23</v>
-      </c>
-      <c r="F321" t="s">
-        <v>23</v>
-      </c>
-      <c r="G321" t="s">
-        <v>23</v>
-      </c>
-      <c r="H321">
-        <v>72</v>
       </c>
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
@@ -12609,13 +12597,25 @@
         <v>558</v>
       </c>
       <c r="B322" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
       <c r="C322" t="s">
         <v>6</v>
       </c>
       <c r="D322" t="s">
         <v>7</v>
+      </c>
+      <c r="E322" t="s">
+        <v>23</v>
+      </c>
+      <c r="F322" t="s">
+        <v>23</v>
+      </c>
+      <c r="G322" t="s">
+        <v>23</v>
+      </c>
+      <c r="H322">
+        <v>72</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -12623,7 +12623,7 @@
         <v>558</v>
       </c>
       <c r="B323" t="s">
-        <v>152</v>
+        <v>46</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
@@ -12637,7 +12637,7 @@
         <v>558</v>
       </c>
       <c r="B324" t="s">
-        <v>25</v>
+        <v>152</v>
       </c>
       <c r="C324" t="s">
         <v>6</v>
@@ -12651,10 +12651,10 @@
         <v>558</v>
       </c>
       <c r="B325" t="s">
-        <v>554</v>
+        <v>25</v>
       </c>
       <c r="C325" t="s">
-        <v>555</v>
+        <v>6</v>
       </c>
       <c r="D325" t="s">
         <v>7</v>
@@ -12665,7 +12665,7 @@
         <v>558</v>
       </c>
       <c r="B326" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C326" t="s">
         <v>555</v>
@@ -12679,7 +12679,7 @@
         <v>558</v>
       </c>
       <c r="B327" t="s">
-        <v>375</v>
+        <v>556</v>
       </c>
       <c r="C327" t="s">
         <v>555</v>
@@ -12693,7 +12693,7 @@
         <v>558</v>
       </c>
       <c r="B328" t="s">
-        <v>557</v>
+        <v>375</v>
       </c>
       <c r="C328" t="s">
         <v>555</v>
@@ -12707,10 +12707,10 @@
         <v>558</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>557</v>
       </c>
       <c r="C329" t="s">
-        <v>14</v>
+        <v>555</v>
       </c>
       <c r="D329" t="s">
         <v>7</v>
@@ -12721,10 +12721,10 @@
         <v>558</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C330" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D330" t="s">
         <v>7</v>
@@ -12735,7 +12735,7 @@
         <v>558</v>
       </c>
       <c r="B331" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C331" t="s">
         <v>16</v>
@@ -12749,10 +12749,10 @@
         <v>558</v>
       </c>
       <c r="B332" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C332" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D332" t="s">
         <v>7</v>
@@ -12763,7 +12763,7 @@
         <v>558</v>
       </c>
       <c r="B333" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C333" t="s">
         <v>14</v>
@@ -12777,10 +12777,10 @@
         <v>558</v>
       </c>
       <c r="B334" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C334" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D334" t="s">
         <v>7</v>
@@ -12791,10 +12791,10 @@
         <v>558</v>
       </c>
       <c r="B335" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C335" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D335" t="s">
         <v>7</v>
@@ -12805,7 +12805,7 @@
         <v>558</v>
       </c>
       <c r="B336" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
@@ -12816,28 +12816,16 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>388</v>
+        <v>558</v>
       </c>
       <c r="B337" t="s">
-        <v>376</v>
+        <v>22</v>
       </c>
       <c r="C337" t="s">
         <v>6</v>
       </c>
       <c r="D337" t="s">
         <v>7</v>
-      </c>
-      <c r="E337" t="s">
-        <v>23</v>
-      </c>
-      <c r="F337" t="s">
-        <v>23</v>
-      </c>
-      <c r="G337" t="s">
-        <v>23</v>
-      </c>
-      <c r="H337">
-        <v>5999</v>
       </c>
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
@@ -12845,13 +12833,25 @@
         <v>388</v>
       </c>
       <c r="B338" t="s">
-        <v>269</v>
+        <v>376</v>
       </c>
       <c r="C338" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D338" t="s">
         <v>7</v>
+      </c>
+      <c r="E338" t="s">
+        <v>23</v>
+      </c>
+      <c r="F338" t="s">
+        <v>23</v>
+      </c>
+      <c r="G338" t="s">
+        <v>23</v>
+      </c>
+      <c r="H338">
+        <v>5999</v>
       </c>
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
@@ -12859,10 +12859,10 @@
         <v>388</v>
       </c>
       <c r="B339" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C339" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D339" t="s">
         <v>7</v>
@@ -12873,7 +12873,7 @@
         <v>388</v>
       </c>
       <c r="B340" t="s">
-        <v>174</v>
+        <v>268</v>
       </c>
       <c r="C340" t="s">
         <v>6</v>
@@ -12887,7 +12887,7 @@
         <v>388</v>
       </c>
       <c r="B341" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C341" t="s">
         <v>6</v>
@@ -12901,13 +12901,13 @@
         <v>388</v>
       </c>
       <c r="B342" t="s">
-        <v>377</v>
+        <v>175</v>
       </c>
       <c r="C342" t="s">
         <v>6</v>
       </c>
       <c r="D342" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
@@ -12915,7 +12915,7 @@
         <v>388</v>
       </c>
       <c r="B343" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C343" t="s">
         <v>6</v>
@@ -12929,13 +12929,13 @@
         <v>388</v>
       </c>
       <c r="B344" t="s">
-        <v>46</v>
+        <v>378</v>
       </c>
       <c r="C344" t="s">
         <v>6</v>
       </c>
       <c r="D344" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
@@ -12943,13 +12943,13 @@
         <v>388</v>
       </c>
       <c r="B345" t="s">
-        <v>379</v>
+        <v>46</v>
       </c>
       <c r="C345" t="s">
         <v>6</v>
       </c>
       <c r="D345" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
@@ -12957,10 +12957,10 @@
         <v>388</v>
       </c>
       <c r="B346" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C346" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D346" t="s">
         <v>28</v>
@@ -12971,10 +12971,10 @@
         <v>388</v>
       </c>
       <c r="B347" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C347" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D347" t="s">
         <v>28</v>
@@ -12985,10 +12985,10 @@
         <v>388</v>
       </c>
       <c r="B348" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C348" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D348" t="s">
         <v>28</v>
@@ -12999,7 +12999,7 @@
         <v>388</v>
       </c>
       <c r="B349" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C349" t="s">
         <v>14</v>
@@ -13013,10 +13013,10 @@
         <v>388</v>
       </c>
       <c r="B350" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C350" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D350" t="s">
         <v>28</v>
@@ -13027,10 +13027,10 @@
         <v>388</v>
       </c>
       <c r="B351" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C351" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D351" t="s">
         <v>28</v>
@@ -13041,10 +13041,10 @@
         <v>388</v>
       </c>
       <c r="B352" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C352" t="s">
-        <v>14</v>
+        <v>526</v>
       </c>
       <c r="D352" t="s">
         <v>28</v>
@@ -13055,10 +13055,10 @@
         <v>388</v>
       </c>
       <c r="B353" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C353" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D353" t="s">
         <v>28</v>
@@ -13069,13 +13069,13 @@
         <v>388</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>387</v>
       </c>
       <c r="C354" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D354" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
@@ -13083,10 +13083,10 @@
         <v>388</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C355" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D355" t="s">
         <v>7</v>
@@ -13097,7 +13097,7 @@
         <v>388</v>
       </c>
       <c r="B356" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C356" t="s">
         <v>16</v>
@@ -13111,10 +13111,10 @@
         <v>388</v>
       </c>
       <c r="B357" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C357" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D357" t="s">
         <v>7</v>
@@ -13125,7 +13125,7 @@
         <v>388</v>
       </c>
       <c r="B358" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C358" t="s">
         <v>14</v>
@@ -13139,10 +13139,10 @@
         <v>388</v>
       </c>
       <c r="B359" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C359" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D359" t="s">
         <v>7</v>
@@ -13153,10 +13153,10 @@
         <v>388</v>
       </c>
       <c r="B360" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C360" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D360" t="s">
         <v>7</v>
@@ -13167,7 +13167,7 @@
         <v>388</v>
       </c>
       <c r="B361" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C361" t="s">
         <v>6</v>
@@ -13178,28 +13178,16 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B362" t="s">
-        <v>390</v>
+        <v>22</v>
       </c>
       <c r="C362" t="s">
         <v>6</v>
       </c>
       <c r="D362" t="s">
         <v>7</v>
-      </c>
-      <c r="E362" t="s">
-        <v>23</v>
-      </c>
-      <c r="F362" t="s">
-        <v>23</v>
-      </c>
-      <c r="G362" t="s">
-        <v>23</v>
-      </c>
-      <c r="H362">
-        <v>4758</v>
       </c>
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
@@ -13207,13 +13195,25 @@
         <v>389</v>
       </c>
       <c r="B363" t="s">
-        <v>269</v>
+        <v>390</v>
       </c>
       <c r="C363" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D363" t="s">
         <v>7</v>
+      </c>
+      <c r="E363" t="s">
+        <v>23</v>
+      </c>
+      <c r="F363" t="s">
+        <v>23</v>
+      </c>
+      <c r="G363" t="s">
+        <v>23</v>
+      </c>
+      <c r="H363">
+        <v>4758</v>
       </c>
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
@@ -13221,7 +13221,7 @@
         <v>389</v>
       </c>
       <c r="B364" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="C364" t="s">
         <v>526</v>
@@ -13235,10 +13235,10 @@
         <v>389</v>
       </c>
       <c r="B365" t="s">
-        <v>483</v>
+        <v>391</v>
       </c>
       <c r="C365" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D365" t="s">
         <v>7</v>
@@ -13249,7 +13249,7 @@
         <v>389</v>
       </c>
       <c r="B366" t="s">
-        <v>530</v>
+        <v>483</v>
       </c>
       <c r="C366" t="s">
         <v>6</v>
@@ -13263,7 +13263,7 @@
         <v>389</v>
       </c>
       <c r="B367" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -13277,7 +13277,7 @@
         <v>389</v>
       </c>
       <c r="B368" t="s">
-        <v>393</v>
+        <v>552</v>
       </c>
       <c r="C368" t="s">
         <v>6</v>
@@ -13291,7 +13291,7 @@
         <v>389</v>
       </c>
       <c r="B369" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C369" t="s">
         <v>6</v>
@@ -13305,7 +13305,7 @@
         <v>389</v>
       </c>
       <c r="B370" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C370" t="s">
         <v>6</v>
@@ -13319,7 +13319,7 @@
         <v>389</v>
       </c>
       <c r="B371" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="C371" t="s">
         <v>6</v>
@@ -13333,13 +13333,13 @@
         <v>389</v>
       </c>
       <c r="B372" t="s">
-        <v>396</v>
+        <v>447</v>
       </c>
       <c r="C372" t="s">
-        <v>540</v>
+        <v>6</v>
       </c>
       <c r="D372" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
@@ -13347,10 +13347,10 @@
         <v>389</v>
       </c>
       <c r="B373" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C373" t="s">
-        <v>6</v>
+        <v>540</v>
       </c>
       <c r="D373" t="s">
         <v>28</v>
@@ -13361,7 +13361,7 @@
         <v>389</v>
       </c>
       <c r="B374" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -13375,13 +13375,13 @@
         <v>389</v>
       </c>
       <c r="B375" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C375" t="s">
         <v>6</v>
       </c>
       <c r="D375" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
@@ -13389,13 +13389,13 @@
         <v>389</v>
       </c>
       <c r="B376" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C376" t="s">
         <v>6</v>
       </c>
       <c r="D376" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
@@ -13403,10 +13403,10 @@
         <v>389</v>
       </c>
       <c r="B377" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C377" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D377" t="s">
         <v>28</v>
@@ -13417,13 +13417,13 @@
         <v>389</v>
       </c>
       <c r="B378" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C378" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D378" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
@@ -13431,13 +13431,13 @@
         <v>389</v>
       </c>
       <c r="B379" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
       </c>
       <c r="D379" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
@@ -13445,7 +13445,7 @@
         <v>389</v>
       </c>
       <c r="B380" t="s">
-        <v>112</v>
+        <v>403</v>
       </c>
       <c r="C380" t="s">
         <v>6</v>
@@ -13459,10 +13459,10 @@
         <v>389</v>
       </c>
       <c r="B381" t="s">
-        <v>404</v>
+        <v>112</v>
       </c>
       <c r="C381" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D381" t="s">
         <v>28</v>
@@ -13473,13 +13473,13 @@
         <v>389</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>404</v>
       </c>
       <c r="C382" t="s">
-        <v>14</v>
+        <v>526</v>
       </c>
       <c r="D382" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
@@ -13487,10 +13487,10 @@
         <v>389</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D383" t="s">
         <v>7</v>
@@ -13501,7 +13501,7 @@
         <v>389</v>
       </c>
       <c r="B384" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C384" t="s">
         <v>16</v>
@@ -13515,10 +13515,10 @@
         <v>389</v>
       </c>
       <c r="B385" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C385" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D385" t="s">
         <v>7</v>
@@ -13529,7 +13529,7 @@
         <v>389</v>
       </c>
       <c r="B386" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C386" t="s">
         <v>14</v>
@@ -13543,10 +13543,10 @@
         <v>389</v>
       </c>
       <c r="B387" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C387" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D387" t="s">
         <v>7</v>
@@ -13557,10 +13557,10 @@
         <v>389</v>
       </c>
       <c r="B388" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C388" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D388" t="s">
         <v>7</v>
@@ -13571,7 +13571,7 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C389" t="s">
         <v>6</v>
@@ -13582,28 +13582,16 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>406</v>
+        <v>22</v>
       </c>
       <c r="C390" t="s">
         <v>6</v>
       </c>
       <c r="D390" t="s">
         <v>7</v>
-      </c>
-      <c r="E390" t="s">
-        <v>23</v>
-      </c>
-      <c r="F390" t="s">
-        <v>23</v>
-      </c>
-      <c r="G390" t="s">
-        <v>23</v>
-      </c>
-      <c r="H390">
-        <v>847979</v>
       </c>
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
@@ -13611,13 +13599,25 @@
         <v>405</v>
       </c>
       <c r="B391" t="s">
-        <v>269</v>
+        <v>406</v>
       </c>
       <c r="C391" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D391" t="s">
         <v>7</v>
+      </c>
+      <c r="E391" t="s">
+        <v>23</v>
+      </c>
+      <c r="F391" t="s">
+        <v>23</v>
+      </c>
+      <c r="G391" t="s">
+        <v>23</v>
+      </c>
+      <c r="H391">
+        <v>847979</v>
       </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
@@ -13625,7 +13625,7 @@
         <v>405</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>269</v>
       </c>
       <c r="C392" t="s">
         <v>526</v>
@@ -13639,10 +13639,10 @@
         <v>405</v>
       </c>
       <c r="B393" t="s">
-        <v>471</v>
+        <v>391</v>
       </c>
       <c r="C393" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D393" t="s">
         <v>7</v>
@@ -13653,7 +13653,7 @@
         <v>405</v>
       </c>
       <c r="B394" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C394" t="s">
         <v>6</v>
@@ -13667,7 +13667,7 @@
         <v>405</v>
       </c>
       <c r="B395" t="s">
-        <v>530</v>
+        <v>472</v>
       </c>
       <c r="C395" t="s">
         <v>6</v>
@@ -13681,7 +13681,7 @@
         <v>405</v>
       </c>
       <c r="B396" t="s">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="C396" t="s">
         <v>6</v>
@@ -13695,7 +13695,7 @@
         <v>405</v>
       </c>
       <c r="B397" t="s">
-        <v>402</v>
+        <v>552</v>
       </c>
       <c r="C397" t="s">
         <v>6</v>
@@ -13709,13 +13709,13 @@
         <v>405</v>
       </c>
       <c r="B398" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C398" t="s">
         <v>6</v>
       </c>
       <c r="D398" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
@@ -13723,13 +13723,13 @@
         <v>405</v>
       </c>
       <c r="B399" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
       </c>
       <c r="D399" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
@@ -13737,7 +13737,7 @@
         <v>405</v>
       </c>
       <c r="B400" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C400" t="s">
         <v>6</v>
@@ -13751,13 +13751,13 @@
         <v>405</v>
       </c>
       <c r="B401" t="s">
-        <v>573</v>
+        <v>394</v>
       </c>
       <c r="C401" t="s">
         <v>6</v>
       </c>
       <c r="D401" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
@@ -13765,13 +13765,13 @@
         <v>405</v>
       </c>
       <c r="B402" t="s">
-        <v>447</v>
+        <v>573</v>
       </c>
       <c r="C402" t="s">
         <v>6</v>
       </c>
       <c r="D402" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
@@ -13779,7 +13779,7 @@
         <v>405</v>
       </c>
       <c r="B403" t="s">
-        <v>85</v>
+        <v>447</v>
       </c>
       <c r="C403" t="s">
         <v>6</v>
@@ -13793,13 +13793,13 @@
         <v>405</v>
       </c>
       <c r="B404" t="s">
-        <v>408</v>
+        <v>85</v>
       </c>
       <c r="C404" t="s">
         <v>6</v>
       </c>
       <c r="D404" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
@@ -13807,7 +13807,7 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C405" t="s">
         <v>6</v>
@@ -13821,13 +13821,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>13</v>
+        <v>403</v>
       </c>
       <c r="C406" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D406" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
@@ -13835,10 +13835,10 @@
         <v>405</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C407" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D407" t="s">
         <v>7</v>
@@ -13849,7 +13849,7 @@
         <v>405</v>
       </c>
       <c r="B408" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C408" t="s">
         <v>16</v>
@@ -13863,10 +13863,10 @@
         <v>405</v>
       </c>
       <c r="B409" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C409" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D409" t="s">
         <v>7</v>
@@ -13877,7 +13877,7 @@
         <v>405</v>
       </c>
       <c r="B410" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C410" t="s">
         <v>14</v>
@@ -13891,10 +13891,10 @@
         <v>405</v>
       </c>
       <c r="B411" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C411" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D411" t="s">
         <v>7</v>
@@ -13905,10 +13905,10 @@
         <v>405</v>
       </c>
       <c r="B412" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C412" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D412" t="s">
         <v>7</v>
@@ -13919,7 +13919,7 @@
         <v>405</v>
       </c>
       <c r="B413" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C413" t="s">
         <v>6</v>
@@ -13930,28 +13930,16 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>559</v>
+        <v>405</v>
       </c>
       <c r="B414" t="s">
-        <v>560</v>
+        <v>22</v>
       </c>
       <c r="C414" t="s">
         <v>6</v>
       </c>
       <c r="D414" t="s">
         <v>7</v>
-      </c>
-      <c r="E414" t="s">
-        <v>23</v>
-      </c>
-      <c r="F414" t="s">
-        <v>23</v>
-      </c>
-      <c r="G414" t="s">
-        <v>478</v>
-      </c>
-      <c r="H414">
-        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
@@ -13959,13 +13947,25 @@
         <v>559</v>
       </c>
       <c r="B415" t="s">
-        <v>406</v>
+        <v>560</v>
       </c>
       <c r="C415" t="s">
         <v>6</v>
       </c>
       <c r="D415" t="s">
         <v>7</v>
+      </c>
+      <c r="E415" t="s">
+        <v>23</v>
+      </c>
+      <c r="F415" t="s">
+        <v>23</v>
+      </c>
+      <c r="G415" t="s">
+        <v>478</v>
+      </c>
+      <c r="H415">
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
@@ -13973,7 +13973,7 @@
         <v>559</v>
       </c>
       <c r="B416" t="s">
-        <v>91</v>
+        <v>406</v>
       </c>
       <c r="C416" t="s">
         <v>6</v>
@@ -13987,10 +13987,10 @@
         <v>559</v>
       </c>
       <c r="B417" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="C417" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D417" t="s">
         <v>7</v>
@@ -14001,7 +14001,7 @@
         <v>559</v>
       </c>
       <c r="B418" t="s">
-        <v>561</v>
+        <v>269</v>
       </c>
       <c r="C418" t="s">
         <v>526</v>
@@ -14015,10 +14015,10 @@
         <v>559</v>
       </c>
       <c r="B419" t="s">
-        <v>407</v>
+        <v>561</v>
       </c>
       <c r="C419" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D419" t="s">
         <v>7</v>
@@ -14029,13 +14029,13 @@
         <v>559</v>
       </c>
       <c r="B420" t="s">
-        <v>565</v>
+        <v>407</v>
       </c>
       <c r="C420" t="s">
         <v>6</v>
       </c>
       <c r="D420" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
@@ -14043,7 +14043,7 @@
         <v>559</v>
       </c>
       <c r="B421" t="s">
-        <v>430</v>
+        <v>565</v>
       </c>
       <c r="C421" t="s">
         <v>6</v>
@@ -14057,7 +14057,7 @@
         <v>559</v>
       </c>
       <c r="B422" t="s">
-        <v>562</v>
+        <v>430</v>
       </c>
       <c r="C422" t="s">
         <v>6</v>
@@ -14071,13 +14071,13 @@
         <v>559</v>
       </c>
       <c r="B423" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C423" t="s">
         <v>6</v>
       </c>
       <c r="D423" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
@@ -14085,13 +14085,13 @@
         <v>559</v>
       </c>
       <c r="B424" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="C424" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D424" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
@@ -14099,10 +14099,10 @@
         <v>559</v>
       </c>
       <c r="B425" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C425" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D425" t="s">
         <v>28</v>
@@ -14113,13 +14113,13 @@
         <v>559</v>
       </c>
       <c r="B426" t="s">
-        <v>13</v>
+        <v>564</v>
       </c>
       <c r="C426" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D426" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
@@ -14127,10 +14127,10 @@
         <v>559</v>
       </c>
       <c r="B427" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C427" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D427" t="s">
         <v>7</v>
@@ -14141,7 +14141,7 @@
         <v>559</v>
       </c>
       <c r="B428" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C428" t="s">
         <v>16</v>
@@ -14155,10 +14155,10 @@
         <v>559</v>
       </c>
       <c r="B429" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C429" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D429" t="s">
         <v>7</v>
@@ -14169,7 +14169,7 @@
         <v>559</v>
       </c>
       <c r="B430" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C430" t="s">
         <v>14</v>
@@ -14183,10 +14183,10 @@
         <v>559</v>
       </c>
       <c r="B431" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C431" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D431" t="s">
         <v>7</v>
@@ -14197,10 +14197,10 @@
         <v>559</v>
       </c>
       <c r="B432" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C432" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D432" t="s">
         <v>7</v>
@@ -14211,7 +14211,7 @@
         <v>559</v>
       </c>
       <c r="B433" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C433" t="s">
         <v>6</v>
@@ -14222,28 +14222,16 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>409</v>
+        <v>559</v>
       </c>
       <c r="B434" t="s">
-        <v>410</v>
+        <v>22</v>
       </c>
       <c r="C434" t="s">
         <v>6</v>
       </c>
       <c r="D434" t="s">
         <v>7</v>
-      </c>
-      <c r="E434" t="s">
-        <v>23</v>
-      </c>
-      <c r="F434" t="s">
-        <v>23</v>
-      </c>
-      <c r="G434" t="s">
-        <v>23</v>
-      </c>
-      <c r="H434">
-        <v>4919</v>
       </c>
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
@@ -14251,13 +14239,25 @@
         <v>409</v>
       </c>
       <c r="B435" t="s">
-        <v>268</v>
+        <v>410</v>
       </c>
       <c r="C435" t="s">
         <v>6</v>
       </c>
       <c r="D435" t="s">
         <v>7</v>
+      </c>
+      <c r="E435" t="s">
+        <v>23</v>
+      </c>
+      <c r="F435" t="s">
+        <v>23</v>
+      </c>
+      <c r="G435" t="s">
+        <v>23</v>
+      </c>
+      <c r="H435">
+        <v>4919</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
@@ -14265,10 +14265,10 @@
         <v>409</v>
       </c>
       <c r="B436" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C436" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D436" t="s">
         <v>7</v>
@@ -14279,10 +14279,10 @@
         <v>409</v>
       </c>
       <c r="B437" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="C437" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D437" t="s">
         <v>7</v>
@@ -14293,7 +14293,7 @@
         <v>409</v>
       </c>
       <c r="B438" t="s">
-        <v>411</v>
+        <v>204</v>
       </c>
       <c r="C438" t="s">
         <v>6</v>
@@ -14307,7 +14307,7 @@
         <v>409</v>
       </c>
       <c r="B439" t="s">
-        <v>5</v>
+        <v>411</v>
       </c>
       <c r="C439" t="s">
         <v>6</v>
@@ -14321,7 +14321,7 @@
         <v>409</v>
       </c>
       <c r="B440" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C440" t="s">
         <v>6</v>
@@ -14335,7 +14335,7 @@
         <v>409</v>
       </c>
       <c r="B441" t="s">
-        <v>412</v>
+        <v>46</v>
       </c>
       <c r="C441" t="s">
         <v>6</v>
@@ -14349,7 +14349,7 @@
         <v>409</v>
       </c>
       <c r="B442" t="s">
-        <v>125</v>
+        <v>412</v>
       </c>
       <c r="C442" t="s">
         <v>6</v>
@@ -14363,7 +14363,7 @@
         <v>409</v>
       </c>
       <c r="B443" t="s">
-        <v>91</v>
+        <v>125</v>
       </c>
       <c r="C443" t="s">
         <v>6</v>
@@ -14377,7 +14377,7 @@
         <v>409</v>
       </c>
       <c r="B444" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C444" t="s">
         <v>6</v>
@@ -14391,7 +14391,7 @@
         <v>409</v>
       </c>
       <c r="B445" t="s">
-        <v>447</v>
+        <v>43</v>
       </c>
       <c r="C445" t="s">
         <v>6</v>
@@ -14405,7 +14405,7 @@
         <v>409</v>
       </c>
       <c r="B446" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C446" t="s">
         <v>6</v>
@@ -14419,7 +14419,7 @@
         <v>409</v>
       </c>
       <c r="B447" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="C447" t="s">
         <v>6</v>
@@ -14433,7 +14433,7 @@
         <v>409</v>
       </c>
       <c r="B448" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C448" t="s">
         <v>6</v>
@@ -14447,13 +14447,13 @@
         <v>409</v>
       </c>
       <c r="B449" t="s">
-        <v>334</v>
+        <v>414</v>
       </c>
       <c r="C449" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D449" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.25">
@@ -14461,7 +14461,7 @@
         <v>409</v>
       </c>
       <c r="B450" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
       <c r="C450" t="s">
         <v>526</v>
@@ -14475,10 +14475,10 @@
         <v>409</v>
       </c>
       <c r="B451" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C451" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D451" t="s">
         <v>28</v>
@@ -14489,7 +14489,7 @@
         <v>409</v>
       </c>
       <c r="B452" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C452" t="s">
         <v>6</v>
@@ -14503,7 +14503,7 @@
         <v>409</v>
       </c>
       <c r="B453" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C453" t="s">
         <v>6</v>
@@ -14517,7 +14517,7 @@
         <v>409</v>
       </c>
       <c r="B454" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C454" t="s">
         <v>6</v>
@@ -14531,7 +14531,7 @@
         <v>409</v>
       </c>
       <c r="B455" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C455" t="s">
         <v>6</v>
@@ -14545,7 +14545,7 @@
         <v>409</v>
       </c>
       <c r="B456" t="s">
-        <v>502</v>
+        <v>420</v>
       </c>
       <c r="C456" t="s">
         <v>6</v>
@@ -14559,7 +14559,7 @@
         <v>409</v>
       </c>
       <c r="B457" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="C457" t="s">
         <v>6</v>
@@ -14573,7 +14573,7 @@
         <v>409</v>
       </c>
       <c r="B458" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C458" t="s">
         <v>6</v>
@@ -14587,7 +14587,7 @@
         <v>409</v>
       </c>
       <c r="B459" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C459" t="s">
         <v>6</v>
@@ -14601,7 +14601,7 @@
         <v>409</v>
       </c>
       <c r="B460" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="C460" t="s">
         <v>6</v>
@@ -14615,7 +14615,7 @@
         <v>409</v>
       </c>
       <c r="B461" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="C461" t="s">
         <v>6</v>
@@ -14629,7 +14629,7 @@
         <v>409</v>
       </c>
       <c r="B462" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="C462" t="s">
         <v>6</v>
@@ -14643,7 +14643,7 @@
         <v>409</v>
       </c>
       <c r="B463" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="C463" t="s">
         <v>6</v>
@@ -14657,7 +14657,7 @@
         <v>409</v>
       </c>
       <c r="B464" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C464" t="s">
         <v>6</v>
@@ -14666,12 +14666,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>409</v>
       </c>
       <c r="B465" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C465" t="s">
         <v>6</v>
@@ -14680,12 +14680,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>409</v>
       </c>
       <c r="B466" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C466" t="s">
         <v>6</v>
@@ -14694,12 +14694,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>409</v>
       </c>
       <c r="B467" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="C467" t="s">
         <v>6</v>
@@ -14708,12 +14708,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>409</v>
       </c>
       <c r="B468" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C468" t="s">
         <v>6</v>
@@ -14722,12 +14722,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>409</v>
       </c>
       <c r="B469" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="C469" t="s">
         <v>6</v>
@@ -14736,12 +14736,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>409</v>
       </c>
       <c r="B470" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C470" t="s">
         <v>6</v>
@@ -14750,12 +14750,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>409</v>
       </c>
       <c r="B471" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="C471" t="s">
         <v>6</v>
@@ -14764,40 +14764,40 @@
         <v>28</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>409</v>
       </c>
       <c r="B472" t="s">
-        <v>13</v>
+        <v>501</v>
       </c>
       <c r="C472" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D472" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>409</v>
       </c>
       <c r="B473" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C473" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D473" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>409</v>
       </c>
       <c r="B474" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C474" t="s">
         <v>16</v>
@@ -14806,26 +14806,26 @@
         <v>7</v>
       </c>
     </row>
-    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>409</v>
       </c>
       <c r="B475" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C475" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D475" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>409</v>
       </c>
       <c r="B476" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C476" t="s">
         <v>14</v>
@@ -14834,80 +14834,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>409</v>
       </c>
       <c r="B477" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C477" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D477" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>409</v>
       </c>
       <c r="B478" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C478" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D478" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>409</v>
       </c>
       <c r="B479" t="s">
+        <v>21</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>409</v>
+      </c>
+      <c r="B480" t="s">
         <v>22</v>
       </c>
-      <c r="C479" t="s">
-        <v>6</v>
-      </c>
-      <c r="D479" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A480" t="s">
-        <v>421</v>
-      </c>
-      <c r="B480" t="s">
-        <v>422</v>
-      </c>
       <c r="C480" t="s">
         <v>6</v>
       </c>
       <c r="D480" t="s">
         <v>7</v>
       </c>
-      <c r="E480" t="s">
-        <v>23</v>
-      </c>
-      <c r="F480" t="s">
-        <v>23</v>
-      </c>
-      <c r="G480" t="s">
-        <v>478</v>
-      </c>
-      <c r="H480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>421</v>
       </c>
       <c r="B481" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C481" t="s">
         <v>6</v>
@@ -14915,13 +14903,25 @@
       <c r="D481" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E481" t="s">
+        <v>23</v>
+      </c>
+      <c r="F481" t="s">
+        <v>23</v>
+      </c>
+      <c r="G481" t="s">
+        <v>478</v>
+      </c>
+      <c r="H481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>421</v>
       </c>
       <c r="B482" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C482" t="s">
         <v>6</v>
@@ -14930,12 +14930,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>421</v>
       </c>
       <c r="B483" t="s">
-        <v>62</v>
+        <v>424</v>
       </c>
       <c r="C483" t="s">
         <v>6</v>
@@ -14944,12 +14944,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>421</v>
       </c>
       <c r="B484" t="s">
-        <v>425</v>
+        <v>62</v>
       </c>
       <c r="C484" t="s">
         <v>6</v>
@@ -14958,12 +14958,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>421</v>
       </c>
       <c r="B485" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C485" t="s">
         <v>6</v>
@@ -14972,68 +14972,68 @@
         <v>7</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>421</v>
       </c>
       <c r="B486" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C486" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D486" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>421</v>
       </c>
       <c r="B487" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C487" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D487" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>421</v>
       </c>
       <c r="B488" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C488" t="s">
-        <v>526</v>
+        <v>6</v>
       </c>
       <c r="D488" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>421</v>
       </c>
       <c r="B489" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C489" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D489" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>421</v>
       </c>
       <c r="B490" t="s">
-        <v>125</v>
+        <v>430</v>
       </c>
       <c r="C490" t="s">
         <v>6</v>
@@ -15042,40 +15042,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>421</v>
       </c>
       <c r="B491" t="s">
-        <v>245</v>
+        <v>125</v>
       </c>
       <c r="C491" t="s">
-        <v>540</v>
+        <v>6</v>
       </c>
       <c r="D491" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>421</v>
       </c>
       <c r="B492" t="s">
-        <v>174</v>
+        <v>245</v>
       </c>
       <c r="C492" t="s">
-        <v>6</v>
+        <v>540</v>
       </c>
       <c r="D492" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>421</v>
       </c>
       <c r="B493" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C493" t="s">
         <v>6</v>
@@ -15084,40 +15084,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>421</v>
       </c>
       <c r="B494" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C494" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D494" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>421</v>
       </c>
       <c r="B495" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C495" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D495" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>421</v>
       </c>
       <c r="B496" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C496" t="s">
         <v>16</v>
@@ -15131,10 +15131,10 @@
         <v>421</v>
       </c>
       <c r="B497" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C497" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D497" t="s">
         <v>7</v>
@@ -15145,7 +15145,7 @@
         <v>421</v>
       </c>
       <c r="B498" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C498" t="s">
         <v>14</v>
@@ -15159,10 +15159,10 @@
         <v>421</v>
       </c>
       <c r="B499" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C499" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D499" t="s">
         <v>7</v>
@@ -15173,10 +15173,10 @@
         <v>421</v>
       </c>
       <c r="B500" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C500" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D500" t="s">
         <v>7</v>
@@ -15187,12 +15187,26 @@
         <v>421</v>
       </c>
       <c r="B501" t="s">
+        <v>21</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>421</v>
+      </c>
+      <c r="B502" t="s">
         <v>22</v>
       </c>
-      <c r="C501" t="s">
-        <v>6</v>
-      </c>
-      <c r="D501" t="s">
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17889,7 +17903,7 @@
   <dimension ref="A1:H129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17938,7 +17952,7 @@
         <v>582</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -18034,7 +18048,7 @@
         <v>453</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -18049,7 +18063,7 @@
         <v>23</v>
       </c>
       <c r="H8">
-        <v>644</v>
+        <v>912</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -18060,7 +18074,7 @@
         <v>589</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -18074,7 +18088,7 @@
         <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -18183,10 +18197,10 @@
         <v>588</v>
       </c>
       <c r="B18" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="C18" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -18197,10 +18211,10 @@
         <v>588</v>
       </c>
       <c r="B19" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C19" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -18225,10 +18239,10 @@
         <v>588</v>
       </c>
       <c r="B21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C21" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
@@ -18239,7 +18253,7 @@
         <v>588</v>
       </c>
       <c r="B22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C22" t="s">
         <v>591</v>
@@ -18267,10 +18281,10 @@
         <v>588</v>
       </c>
       <c r="B24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C24" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -18281,7 +18295,7 @@
         <v>588</v>
       </c>
       <c r="B25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C25" t="s">
         <v>590</v>
@@ -18295,10 +18309,10 @@
         <v>588</v>
       </c>
       <c r="B26" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C26" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -18309,10 +18323,10 @@
         <v>588</v>
       </c>
       <c r="B27" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C27" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D27" t="s">
         <v>28</v>
@@ -18323,7 +18337,7 @@
         <v>588</v>
       </c>
       <c r="B28" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -18337,7 +18351,7 @@
         <v>588</v>
       </c>
       <c r="B29" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -18351,7 +18365,7 @@
         <v>588</v>
       </c>
       <c r="B30" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C30" t="s">
         <v>234</v>
@@ -18368,7 +18382,7 @@
         <v>176</v>
       </c>
       <c r="C31" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D31" t="s">
         <v>28</v>
@@ -18382,7 +18396,7 @@
         <v>177</v>
       </c>
       <c r="C32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D32" t="s">
         <v>28</v>
@@ -18396,7 +18410,7 @@
         <v>178</v>
       </c>
       <c r="C33" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D33" t="s">
         <v>28</v>
@@ -18410,7 +18424,7 @@
         <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D34" t="s">
         <v>28</v>
@@ -18424,7 +18438,7 @@
         <v>180</v>
       </c>
       <c r="C35" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D35" t="s">
         <v>28</v>
@@ -18438,7 +18452,7 @@
         <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D36" t="s">
         <v>28</v>
@@ -18452,7 +18466,7 @@
         <v>182</v>
       </c>
       <c r="C37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D37" t="s">
         <v>28</v>
@@ -18466,7 +18480,7 @@
         <v>183</v>
       </c>
       <c r="C38" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D38" t="s">
         <v>28</v>
@@ -18480,7 +18494,7 @@
         <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D39" t="s">
         <v>28</v>
@@ -18494,7 +18508,7 @@
         <v>185</v>
       </c>
       <c r="C40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D40" t="s">
         <v>28</v>
@@ -18508,7 +18522,7 @@
         <v>186</v>
       </c>
       <c r="C41" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
@@ -18522,7 +18536,7 @@
         <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D42" t="s">
         <v>28</v>
@@ -18536,7 +18550,7 @@
         <v>188</v>
       </c>
       <c r="C43" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D43" t="s">
         <v>28</v>
@@ -18550,7 +18564,7 @@
         <v>189</v>
       </c>
       <c r="C44" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D44" t="s">
         <v>28</v>
@@ -18564,7 +18578,7 @@
         <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D45" t="s">
         <v>28</v>
@@ -18578,7 +18592,7 @@
         <v>191</v>
       </c>
       <c r="C46" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D46" t="s">
         <v>28</v>
@@ -18592,7 +18606,7 @@
         <v>192</v>
       </c>
       <c r="C47" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D47" t="s">
         <v>28</v>
@@ -18606,7 +18620,7 @@
         <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D48" t="s">
         <v>28</v>
@@ -18620,7 +18634,7 @@
         <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D49" t="s">
         <v>28</v>
@@ -18634,7 +18648,7 @@
         <v>195</v>
       </c>
       <c r="C50" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
@@ -18659,10 +18673,10 @@
         <v>588</v>
       </c>
       <c r="B52" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C52" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D52" t="s">
         <v>28</v>
@@ -18701,10 +18715,10 @@
         <v>588</v>
       </c>
       <c r="B55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C55" t="s">
-        <v>591</v>
+        <v>526</v>
       </c>
       <c r="D55" t="s">
         <v>7</v>
@@ -18712,13 +18726,13 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B56" t="s">
         <v>453</v>
       </c>
       <c r="C56" t="s">
-        <v>590</v>
+        <v>526</v>
       </c>
       <c r="D56" t="s">
         <v>7</v>
@@ -18733,15 +18747,15 @@
         <v>23</v>
       </c>
       <c r="H56">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>605</v>
+      </c>
+      <c r="B57" t="s">
         <v>606</v>
-      </c>
-      <c r="B57" t="s">
-        <v>607</v>
       </c>
       <c r="C57" t="s">
         <v>590</v>
@@ -18752,10 +18766,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B58" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C58" t="s">
         <v>526</v>
@@ -18766,10 +18780,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B59" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C59" t="s">
         <v>590</v>
@@ -18780,10 +18794,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B60" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C60" t="s">
         <v>590</v>
@@ -18794,10 +18808,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B61" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C61" t="s">
         <v>590</v>
@@ -18808,10 +18822,10 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B62" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C62" t="s">
         <v>590</v>
@@ -18822,10 +18836,10 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B63" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C63" t="s">
         <v>526</v>
@@ -18836,10 +18850,10 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B64" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C64" t="s">
         <v>590</v>
@@ -18850,7 +18864,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B65" t="s">
         <v>586</v>
@@ -18864,7 +18878,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B66" t="s">
         <v>17</v>
@@ -18878,10 +18892,10 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B67" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C67" t="s">
         <v>590</v>
@@ -18892,13 +18906,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>614</v>
+      </c>
+      <c r="B68" t="s">
         <v>615</v>
       </c>
-      <c r="B68" t="s">
-        <v>616</v>
-      </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D68" t="s">
         <v>7</v>
@@ -18918,10 +18932,10 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B69" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C69" t="s">
         <v>6</v>
@@ -18932,10 +18946,10 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B70" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C70" t="s">
         <v>154</v>
@@ -18946,7 +18960,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B71" t="s">
         <v>17</v>
@@ -18960,7 +18974,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B72" t="s">
         <v>586</v>
@@ -18974,10 +18988,10 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B73" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
@@ -18988,13 +19002,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>618</v>
+      </c>
+      <c r="B74" t="s">
         <v>619</v>
       </c>
-      <c r="B74" t="s">
-        <v>620</v>
-      </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D74" t="s">
         <v>7</v>
@@ -19014,10 +19028,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B75" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
@@ -19028,10 +19042,10 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B76" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C76" t="s">
         <v>154</v>
@@ -19042,7 +19056,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B77" t="s">
         <v>17</v>
@@ -19056,7 +19070,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B78" t="s">
         <v>586</v>
@@ -19070,10 +19084,10 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B79" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C79" t="s">
         <v>6</v>
@@ -19084,13 +19098,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B80" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D80" t="s">
         <v>7</v>
@@ -19110,10 +19124,10 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B81" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C81" t="s">
         <v>584</v>
@@ -19124,10 +19138,10 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B82" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C82" t="s">
         <v>584</v>
@@ -19138,7 +19152,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B83" t="s">
         <v>17</v>
@@ -19152,7 +19166,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B84" t="s">
         <v>586</v>
@@ -19166,10 +19180,10 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B85" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C85" t="s">
         <v>6</v>
@@ -19180,13 +19194,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B86" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D86" t="s">
         <v>7</v>
@@ -19206,10 +19220,10 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B87" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C87" t="s">
         <v>6</v>
@@ -19220,10 +19234,10 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B88" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C88" t="s">
         <v>154</v>
@@ -19234,7 +19248,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
@@ -19248,7 +19262,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B90" t="s">
         <v>586</v>
@@ -19262,10 +19276,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B91" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C91" t="s">
         <v>6</v>
@@ -19276,21 +19290,33 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>630</v>
+      </c>
+      <c r="B92" t="s">
         <v>631</v>
       </c>
-      <c r="B92" t="s">
-        <v>632</v>
-      </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D92" t="s">
         <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>23</v>
+      </c>
+      <c r="F92" t="s">
+        <v>23</v>
+      </c>
+      <c r="G92" t="s">
+        <v>23</v>
+      </c>
+      <c r="H92">
+        <v>8</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B93" t="s">
         <v>200</v>
@@ -19304,7 +19330,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -19318,7 +19344,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B95" t="s">
         <v>17</v>
@@ -19332,7 +19358,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B96" t="s">
         <v>19</v>
@@ -19346,13 +19372,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B97" t="s">
         <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D97" t="s">
         <v>7</v>
@@ -19367,18 +19393,18 @@
         <v>23</v>
       </c>
       <c r="H97">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D98" t="s">
         <v>7</v>
@@ -19386,7 +19412,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B99" t="s">
         <v>200</v>
@@ -19400,7 +19426,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B100" t="s">
         <v>201</v>
@@ -19414,7 +19440,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B101" t="s">
         <v>202</v>
@@ -19428,7 +19454,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B102" t="s">
         <v>196</v>
@@ -19442,10 +19468,10 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B103" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C103" t="s">
         <v>27</v>
@@ -19456,10 +19482,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B104" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
@@ -19470,7 +19496,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B105" t="s">
         <v>15</v>
@@ -19484,7 +19510,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B106" t="s">
         <v>17</v>
@@ -19498,7 +19524,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B107" t="s">
         <v>586</v>
@@ -19512,10 +19538,10 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B108" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C108" t="s">
         <v>6</v>
@@ -19526,13 +19552,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B109" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D109" t="s">
         <v>7</v>
@@ -19552,10 +19578,10 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>633</v>
+      </c>
+      <c r="B110" t="s">
         <v>634</v>
-      </c>
-      <c r="B110" t="s">
-        <v>636</v>
       </c>
       <c r="C110" t="s">
         <v>154</v>
@@ -19566,7 +19592,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B111" t="s">
         <v>15</v>
@@ -19580,7 +19606,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B112" t="s">
         <v>17</v>
@@ -19594,7 +19620,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B113" t="s">
         <v>19</v>
@@ -19608,13 +19634,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B114" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D114" t="s">
         <v>7</v>
@@ -19634,10 +19660,10 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>635</v>
+      </c>
+      <c r="B115" t="s">
         <v>637</v>
-      </c>
-      <c r="B115" t="s">
-        <v>639</v>
       </c>
       <c r="C115" t="s">
         <v>154</v>
@@ -19648,10 +19674,10 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B116" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C116" t="s">
         <v>154</v>
@@ -19662,10 +19688,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B117" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C117" t="s">
         <v>154</v>
@@ -19676,10 +19702,10 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B118" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C118" t="s">
         <v>154</v>
@@ -19690,10 +19716,10 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B119" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C119" t="s">
         <v>16</v>
@@ -19704,10 +19730,10 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B120" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C120" t="s">
         <v>154</v>
@@ -19718,7 +19744,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B121" t="s">
         <v>17</v>
@@ -19732,7 +19758,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B122" t="s">
         <v>586</v>
@@ -19746,10 +19772,10 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B123" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C123" t="s">
         <v>154</v>
@@ -19760,13 +19786,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B124" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>526</v>
       </c>
       <c r="D124" t="s">
         <v>7</v>
@@ -19786,10 +19812,10 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>643</v>
+      </c>
+      <c r="B125" t="s">
         <v>645</v>
-      </c>
-      <c r="B125" t="s">
-        <v>647</v>
       </c>
       <c r="C125" t="s">
         <v>6</v>
@@ -19800,10 +19826,10 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B126" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C126" t="s">
         <v>154</v>
@@ -19814,7 +19840,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B127" t="s">
         <v>17</v>
@@ -19828,7 +19854,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B128" t="s">
         <v>586</v>
@@ -19842,10 +19868,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B129" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C129" t="s">
         <v>6</v>
